--- a/acre_marine_data/Marine data/BRITISH SHIP, MAY TO JUNE 1838.xlsx
+++ b/acre_marine_data/Marine data/BRITISH SHIP, MAY TO JUNE 1838.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lamprini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdc899b28ada8e9/Documents/GitHub/Tools1_Final/acre_marine_data/Marine data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_39C4DDCE406DF5B9CC643C931CD7C57134BC3A73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remarks" sheetId="3" r:id="rId1"/>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -339,12 +340,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -355,9 +350,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,9 +374,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -417,7 +418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,7 +443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1242,6 +1242,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4418-4BAE-8C96-88DFC1512F0A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2056,6 +2061,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4418-4BAE-8C96-88DFC1512F0A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2109,7 +2119,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="520618864"/>
@@ -2168,7 +2178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="520618304"/>
@@ -2185,7 +2195,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2211,7 +2220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2241,7 +2250,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2253,9 +2262,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2267,7 +2276,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2293,7 +2301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3116,6 +3124,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE4A-4FF0-B70A-7E35795E26C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3169,7 +3182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64335232"/>
@@ -3228,7 +3241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64336352"/>
@@ -3269,7 +3282,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4409,7 +4422,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Γράφημα 1"/>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4441,7 +4460,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Γράφημα 2"/>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4723,72 +4748,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="17" t="s">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E6">
         <v>1838</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="17" t="s">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="18" t="s">
+    <row r="9" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="21" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="24" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,32 +4821,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="16.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="16.453125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F2" s="2"/>
       <c r="G2" s="11"/>
       <c r="H2" s="2"/>
@@ -4832,7 +4857,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4870,10 +4895,10 @@
         <v>17</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1838</v>
       </c>
@@ -4908,7 +4933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1838</v>
       </c>
@@ -4932,7 +4957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1838</v>
       </c>
@@ -4955,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1838</v>
       </c>
@@ -4990,7 +5015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1838</v>
       </c>
@@ -5013,7 +5038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1838</v>
       </c>
@@ -5036,7 +5061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1838</v>
       </c>
@@ -5071,7 +5096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1838</v>
       </c>
@@ -5094,7 +5119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1838</v>
       </c>
@@ -5120,7 +5145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1838</v>
       </c>
@@ -5147,7 +5172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1838</v>
       </c>
@@ -5173,7 +5198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1838</v>
       </c>
@@ -5199,7 +5224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1838</v>
       </c>
@@ -5237,7 +5262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1838</v>
       </c>
@@ -5263,7 +5288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -5289,7 +5314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1838</v>
       </c>
@@ -5315,7 +5340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1838</v>
       </c>
@@ -5341,7 +5366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1838</v>
       </c>
@@ -5367,7 +5392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1838</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1838</v>
       </c>
@@ -5431,7 +5456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1838</v>
       </c>
@@ -5469,7 +5494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1838</v>
       </c>
@@ -5495,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1838</v>
       </c>
@@ -5521,7 +5546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1838</v>
       </c>
@@ -5547,7 +5572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1838</v>
       </c>
@@ -5579,7 +5604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1838</v>
       </c>
@@ -5605,7 +5630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1838</v>
       </c>
@@ -5631,7 +5656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1838</v>
       </c>
@@ -5657,7 +5682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1838</v>
       </c>
@@ -5695,7 +5720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1838</v>
       </c>
@@ -5721,7 +5746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1838</v>
       </c>
@@ -5747,7 +5772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1838</v>
       </c>
@@ -5773,7 +5798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1838</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1838</v>
       </c>
@@ -5837,7 +5862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1838</v>
       </c>
@@ -5863,7 +5888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1838</v>
       </c>
@@ -5889,7 +5914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1838</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1838</v>
       </c>
@@ -5939,7 +5964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1838</v>
       </c>
@@ -5977,7 +6002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1838</v>
       </c>
@@ -6003,7 +6028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1838</v>
       </c>
@@ -6029,7 +6054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1838</v>
       </c>
@@ -6067,7 +6092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1838</v>
       </c>
@@ -6094,7 +6119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1838</v>
       </c>
@@ -6120,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1838</v>
       </c>
@@ -6146,7 +6171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1838</v>
       </c>
@@ -6172,7 +6197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1838</v>
       </c>
@@ -6198,7 +6223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1838</v>
       </c>
@@ -6224,7 +6249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1838</v>
       </c>
@@ -6250,7 +6275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1838</v>
       </c>
@@ -6288,7 +6313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1838</v>
       </c>
@@ -6314,7 +6339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1838</v>
       </c>
@@ -6340,7 +6365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1838</v>
       </c>
@@ -6366,7 +6391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1838</v>
       </c>
@@ -6392,7 +6417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1838</v>
       </c>
@@ -6430,7 +6455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1838</v>
       </c>
@@ -6456,7 +6481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1838</v>
       </c>
@@ -6482,7 +6507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1838</v>
       </c>
@@ -6520,7 +6545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1838</v>
       </c>
@@ -6546,7 +6571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1838</v>
       </c>
@@ -6572,7 +6597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1838</v>
       </c>
@@ -6598,7 +6623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1838</v>
       </c>
@@ -6624,7 +6649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1838</v>
       </c>
@@ -6650,7 +6675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1838</v>
       </c>
@@ -6676,7 +6701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1838</v>
       </c>
@@ -6702,7 +6727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1838</v>
       </c>
@@ -6728,7 +6753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1838</v>
       </c>
@@ -6766,7 +6791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1838</v>
       </c>
@@ -6792,7 +6817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1838</v>
       </c>
@@ -6818,7 +6843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1838</v>
       </c>
@@ -6844,7 +6869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1838</v>
       </c>
@@ -6870,7 +6895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1838</v>
       </c>
@@ -6896,7 +6921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1838</v>
       </c>
@@ -6922,7 +6947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1838</v>
       </c>
@@ -6960,7 +6985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1838</v>
       </c>
@@ -6986,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1838</v>
       </c>
@@ -7012,7 +7037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1838</v>
       </c>
@@ -7038,7 +7063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1838</v>
       </c>
@@ -7064,7 +7089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1838</v>
       </c>
@@ -7102,7 +7127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1838</v>
       </c>
@@ -7128,7 +7153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1838</v>
       </c>
@@ -7154,7 +7179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1838</v>
       </c>
@@ -7180,7 +7205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1838</v>
       </c>
@@ -7206,7 +7231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1838</v>
       </c>
@@ -7232,7 +7257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1838</v>
       </c>
@@ -7258,7 +7283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1838</v>
       </c>
@@ -7284,7 +7309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1838</v>
       </c>
@@ -7310,7 +7335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1838</v>
       </c>
@@ -7336,7 +7361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1838</v>
       </c>
@@ -7374,7 +7399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1838</v>
       </c>
@@ -7400,7 +7425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1838</v>
       </c>
@@ -7426,7 +7451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1838</v>
       </c>
@@ -7452,7 +7477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1838</v>
       </c>
@@ -7490,7 +7515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1838</v>
       </c>
@@ -7528,7 +7553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1838</v>
       </c>
@@ -7554,7 +7579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1838</v>
       </c>
@@ -7580,7 +7605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1838</v>
       </c>
@@ -7606,7 +7631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1838</v>
       </c>
@@ -7632,7 +7657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1838</v>
       </c>
@@ -7658,7 +7683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1838</v>
       </c>
@@ -7684,7 +7709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1838</v>
       </c>
@@ -7722,7 +7747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1838</v>
       </c>
@@ -7748,7 +7773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1838</v>
       </c>
@@ -7774,7 +7799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1838</v>
       </c>
@@ -7800,7 +7825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1838</v>
       </c>
@@ -7826,7 +7851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1838</v>
       </c>
@@ -7852,7 +7877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1838</v>
       </c>
@@ -7878,7 +7903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1838</v>
       </c>
@@ -7916,7 +7941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1838</v>
       </c>
@@ -7942,7 +7967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1838</v>
       </c>
@@ -7968,7 +7993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1838</v>
       </c>
@@ -7994,7 +8019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1838</v>
       </c>
@@ -8020,7 +8045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1838</v>
       </c>
@@ -8046,7 +8071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1838</v>
       </c>
@@ -8072,7 +8097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1838</v>
       </c>
@@ -8098,7 +8123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1838</v>
       </c>
@@ -8124,7 +8149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1838</v>
       </c>
@@ -8162,7 +8187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1838</v>
       </c>
@@ -8188,7 +8213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1838</v>
       </c>
@@ -8214,7 +8239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1838</v>
       </c>
@@ -8237,7 +8262,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1838</v>
       </c>
@@ -8263,7 +8288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1838</v>
       </c>
@@ -8301,7 +8326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1838</v>
       </c>
@@ -8339,7 +8364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1838</v>
       </c>
@@ -8365,7 +8390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1838</v>
       </c>
@@ -8391,7 +8416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1838</v>
       </c>
@@ -8414,7 +8439,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1838</v>
       </c>
@@ -8440,7 +8465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1838</v>
       </c>
@@ -8466,7 +8491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1838</v>
       </c>
@@ -8492,7 +8517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1838</v>
       </c>
@@ -8530,7 +8555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1838</v>
       </c>
@@ -8556,7 +8581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1838</v>
       </c>
@@ -8582,7 +8607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1838</v>
       </c>
@@ -8608,7 +8633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1838</v>
       </c>
@@ -8634,7 +8659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1838</v>
       </c>
@@ -8660,7 +8685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1838</v>
       </c>
@@ -8698,7 +8723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1838</v>
       </c>
@@ -8724,7 +8749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1838</v>
       </c>
@@ -8750,7 +8775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1838</v>
       </c>
@@ -8776,7 +8801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1838</v>
       </c>
@@ -8802,7 +8827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1838</v>
       </c>
@@ -8828,7 +8853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1838</v>
       </c>
@@ -8866,7 +8891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1838</v>
       </c>
@@ -8892,7 +8917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1838</v>
       </c>
@@ -8918,7 +8943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1838</v>
       </c>
@@ -8944,7 +8969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1838</v>
       </c>
@@ -8970,7 +8995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1838</v>
       </c>
@@ -8996,7 +9021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1838</v>
       </c>
@@ -9034,7 +9059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1838</v>
       </c>
@@ -9060,7 +9085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1838</v>
       </c>
@@ -9086,7 +9111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1838</v>
       </c>
@@ -9112,7 +9137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1838</v>
       </c>
@@ -9138,7 +9163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1838</v>
       </c>
@@ -9164,7 +9189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1838</v>
       </c>
@@ -9202,7 +9227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1838</v>
       </c>
@@ -9240,7 +9265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1838</v>
       </c>
@@ -9266,7 +9291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1838</v>
       </c>
@@ -9292,7 +9317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1838</v>
       </c>
@@ -9318,7 +9343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1838</v>
       </c>
@@ -9344,7 +9369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1838</v>
       </c>
@@ -9370,7 +9395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1838</v>
       </c>
@@ -9396,7 +9421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1838</v>
       </c>
@@ -9422,7 +9447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1838</v>
       </c>
@@ -9460,7 +9485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1838</v>
       </c>
@@ -9486,7 +9511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1838</v>
       </c>
@@ -9512,7 +9537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1838</v>
       </c>
@@ -9538,7 +9563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1838</v>
       </c>
@@ -9564,7 +9589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1838</v>
       </c>
@@ -9590,7 +9615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1838</v>
       </c>
@@ -9616,7 +9641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1838</v>
       </c>
@@ -9642,7 +9667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1838</v>
       </c>
@@ -9668,7 +9693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1838</v>
       </c>
@@ -9706,7 +9731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1838</v>
       </c>
@@ -9732,7 +9757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1838</v>
       </c>
@@ -9758,7 +9783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1838</v>
       </c>
@@ -9796,7 +9821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1838</v>
       </c>
@@ -9822,7 +9847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1838</v>
       </c>
@@ -9848,7 +9873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1838</v>
       </c>
@@ -9874,7 +9899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1838</v>
       </c>
@@ -9900,7 +9925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1838</v>
       </c>
@@ -9926,7 +9951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1838</v>
       </c>
@@ -9952,7 +9977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1838</v>
       </c>
@@ -9978,7 +10003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1838</v>
       </c>
@@ -10004,7 +10029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1838</v>
       </c>
@@ -10030,7 +10055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1838</v>
       </c>
@@ -10056,7 +10081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1838</v>
       </c>
@@ -10082,7 +10107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1838</v>
       </c>
@@ -10108,7 +10133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1838</v>
       </c>
@@ -10134,7 +10159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1838</v>
       </c>
@@ -10160,7 +10185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1838</v>
       </c>
@@ -10186,7 +10211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1838</v>
       </c>
@@ -10212,7 +10237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1838</v>
       </c>
@@ -10238,7 +10263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1838</v>
       </c>
@@ -10276,7 +10301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1838</v>
       </c>
@@ -10302,7 +10327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1838</v>
       </c>
@@ -10328,7 +10353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1838</v>
       </c>
@@ -10354,7 +10379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1838</v>
       </c>
@@ -10380,7 +10405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1838</v>
       </c>
@@ -10406,7 +10431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1838</v>
       </c>
@@ -10444,7 +10469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1838</v>
       </c>
@@ -10470,7 +10495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1838</v>
       </c>
@@ -10496,7 +10521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1838</v>
       </c>
@@ -10522,7 +10547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1838</v>
       </c>
@@ -10548,7 +10573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1838</v>
       </c>
@@ -10574,7 +10599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1838</v>
       </c>
@@ -10612,7 +10637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1838</v>
       </c>
@@ -10638,7 +10663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1838</v>
       </c>
@@ -10664,7 +10689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1838</v>
       </c>
@@ -10690,7 +10715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1838</v>
       </c>
@@ -10716,7 +10741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1838</v>
       </c>
@@ -10754,7 +10779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1838</v>
       </c>
@@ -10780,7 +10805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1838</v>
       </c>
@@ -10806,7 +10831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1838</v>
       </c>
@@ -10832,7 +10857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1838</v>
       </c>
@@ -10858,7 +10883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1838</v>
       </c>
@@ -10884,7 +10909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1838</v>
       </c>
@@ -10910,7 +10935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1838</v>
       </c>
@@ -10948,7 +10973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1838</v>
       </c>
@@ -10974,7 +10999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1838</v>
       </c>
@@ -11000,7 +11025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1838</v>
       </c>
@@ -11026,7 +11051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1838</v>
       </c>
@@ -11052,7 +11077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1838</v>
       </c>
@@ -11078,7 +11103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1838</v>
       </c>
@@ -11104,7 +11129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1838</v>
       </c>
@@ -11142,7 +11167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1838</v>
       </c>
@@ -11168,7 +11193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1838</v>
       </c>
@@ -11194,7 +11219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1838</v>
       </c>
@@ -11220,7 +11245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1838</v>
       </c>
@@ -11246,7 +11271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1838</v>
       </c>
@@ -11284,7 +11309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1838</v>
       </c>
@@ -11310,7 +11335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1838</v>
       </c>
@@ -11348,7 +11373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1838</v>
       </c>
@@ -11374,7 +11399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1838</v>
       </c>
@@ -11400,7 +11425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1838</v>
       </c>
@@ -11438,7 +11463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1838</v>
       </c>
@@ -11464,7 +11489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1838</v>
       </c>
@@ -11490,7 +11515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1838</v>
       </c>
@@ -11516,7 +11541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1838</v>
       </c>
@@ -11542,7 +11567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1838</v>
       </c>
@@ -11568,7 +11593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1838</v>
       </c>
@@ -11606,7 +11631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1838</v>
       </c>
@@ -11632,7 +11657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1838</v>
       </c>
@@ -11658,7 +11683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1838</v>
       </c>
@@ -11684,7 +11709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1838</v>
       </c>
@@ -11710,7 +11735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1838</v>
       </c>
@@ -11736,7 +11761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1838</v>
       </c>
@@ -11774,7 +11799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1838</v>
       </c>
@@ -11800,7 +11825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1838</v>
       </c>
@@ -11826,7 +11851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1838</v>
       </c>
@@ -11852,7 +11877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1838</v>
       </c>
@@ -11878,7 +11903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1838</v>
       </c>
@@ -11916,7 +11941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1838</v>
       </c>
@@ -11942,7 +11967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1838</v>
       </c>
@@ -11968,7 +11993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1838</v>
       </c>
@@ -11994,7 +12019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1838</v>
       </c>
@@ -12020,7 +12045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1838</v>
       </c>
@@ -12058,7 +12083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1838</v>
       </c>
@@ -12084,7 +12109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1838</v>
       </c>
@@ -12110,7 +12135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1838</v>
       </c>
@@ -12146,12 +12171,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
